--- a/REVISI - METODE SAW.xlsx
+++ b/REVISI - METODE SAW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ERecrut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F921EA-1B6B-49D6-83BB-D3CD4613B6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ADC53B-4BC6-49FE-A653-F138229F74D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{B0C69DC1-A069-4A20-BF0C-71885CC61F37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{B0C69DC1-A069-4A20-BF0C-71885CC61F37}"/>
   </bookViews>
   <sheets>
     <sheet name="Regulasi" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="86">
   <si>
     <t>SISTEM PENDUKUNG KEPUTUSAN SELEKSI KANDIDAT</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>Kriteria</t>
+  </si>
+  <si>
+    <t>KRITERIA</t>
+  </si>
+  <si>
+    <t>JENIS</t>
   </si>
 </sst>
 </file>
@@ -431,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -479,6 +485,10 @@
     <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,7 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,15 +829,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CFE7D5-4EED-4EB0-BC1D-2B2DFC712137}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -840,33 +849,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -880,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
@@ -918,16 +927,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3">
         <v>20</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>80</v>
       </c>
-      <c r="D4" s="17">
+      <c r="E4" s="17">
         <v>70</v>
-      </c>
-      <c r="E4" s="3">
-        <v>80</v>
       </c>
       <c r="F4" s="3">
         <v>80</v>
@@ -962,16 +971,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3">
         <v>80</v>
       </c>
-      <c r="D5" s="17">
+      <c r="E5" s="17">
         <v>60</v>
-      </c>
-      <c r="E5" s="3">
-        <v>80</v>
       </c>
       <c r="F5" s="3">
         <v>80</v>
@@ -1006,16 +1015,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3">
         <v>20</v>
       </c>
-      <c r="C6" s="3">
-        <v>80</v>
-      </c>
-      <c r="D6" s="17">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3">
-        <v>80</v>
+      <c r="D6" s="3">
+        <v>70</v>
+      </c>
+      <c r="E6" s="17">
+        <v>70</v>
       </c>
       <c r="F6" s="3">
         <v>80</v>
@@ -1041,16 +1050,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="3">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
         <v>60</v>
       </c>
-      <c r="D7" s="17">
-        <v>70</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="E7" s="17">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
         <v>80</v>
-      </c>
-      <c r="F7" s="3">
-        <v>20</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>40</v>
@@ -1070,16 +1079,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="3">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3">
         <v>20</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>80</v>
       </c>
-      <c r="D8" s="17">
-        <v>80</v>
-      </c>
-      <c r="E8" s="3">
-        <v>80</v>
+      <c r="E8" s="17">
+        <v>60</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -1099,21 +1108,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>20/70</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
       <c r="I11" s="11" t="s">
         <v>3</v>
       </c>
@@ -1126,19 +1129,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>36</v>
@@ -1152,19 +1155,19 @@
         <v>15</v>
       </c>
       <c r="B13" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C13" s="8">
         <v>0.2</v>
       </c>
       <c r="D13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="8">
         <v>0.1</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <v>0.2</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.3</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>51</v>
@@ -1179,19 +1182,19 @@
       </c>
       <c r="B14" s="13">
         <f>IF($B$3="BENEFIT",B4/MAX($B$4:$B$8),MIN($B$4:$B$8)/B4)</f>
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="C14" s="13">
-        <f>IF($C$4="BENEFIT",C4/MAX($C$4:$C$8),MIN($C$4:$C$8)/C4)</f>
+        <f>IF($C$3="BENEFIT",C4/MAX($C$4:$C$8),MIN($C$4:$C$8)/C4)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D14" s="13">
+        <f>IF($D$4="BENEFIT",D4/MAX($D$4:$D$8),MIN($D$4:$D$8)/D4)</f>
         <v>0.75</v>
       </c>
-      <c r="D14" s="18">
-        <f>IF($D$3="COST",MIN($D$4:$D$8)/D4)</f>
+      <c r="E14" s="18">
+        <f>IF($E$3="COST",MIN($E$4:$E$8)/E4)</f>
         <v>0.7142857142857143</v>
-      </c>
-      <c r="E14" s="13">
-        <f>IF($E$3="BENEFIT",E4/MAX($E$4:$E$8),MIN($E$4:$E$8)/E4)</f>
-        <v>1</v>
       </c>
       <c r="F14" s="13">
         <f>IF($F$3="BENEFIT",F4/MAX($F$4:$F$8),MIN($F$4:$F$8)/F4)</f>
@@ -1213,19 +1216,19 @@
         <v>1</v>
       </c>
       <c r="C15" s="13">
-        <f t="shared" ref="C15:C18" si="0">IF($C$4="BENEFIT",C5/MAX($C$4:$C$8),MIN($C$4:$C$8)/C5)</f>
+        <f>IF($C$3="BENEFIT",C5/MAX($C$4:$C$8),MIN($C$4:$C$8)/C5)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <f>IF($D$4="BENEFIT",D5/MAX($D$4:$D$8),MIN($D$4:$D$8)/D5)</f>
         <v>0.75</v>
       </c>
-      <c r="D15" s="18">
-        <f t="shared" ref="D15:D18" si="1">IF($D$3="COST",MIN($D$4:$D$8)/D5)</f>
+      <c r="E15" s="18">
+        <f>IF($E$3="COST",MIN($E$4:$E$8)/E5)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E15" s="13">
-        <f t="shared" ref="E15:E18" si="2">IF($E$3="BENEFIT",E5/MAX($E$4:$E$8),MIN($E$4:$E$8)/E5)</f>
-        <v>1</v>
-      </c>
       <c r="F15" s="13">
-        <f t="shared" ref="F15:F18" si="3">IF($F$3="BENEFIT",F5/MAX($F$4:$F$8),MIN($F$4:$F$8)/F5)</f>
+        <f>IF($F$3="BENEFIT",F5/MAX($F$4:$F$8),MIN($F$4:$F$8)/F5)</f>
         <v>1</v>
       </c>
       <c r="I15" s="12" t="s">
@@ -1241,22 +1244,22 @@
       </c>
       <c r="B16" s="13">
         <f>IF($B$3="BENEFIT",B6/MAX($B$4:$B$8),MIN($B$4:$B$8)/B6)</f>
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="C16" s="13">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="D16" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF($C$3="BENEFIT",C6/MAX($C$4:$C$8),MIN($C$4:$C$8)/C6)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D16" s="13">
+        <f>IF($D$4="BENEFIT",D6/MAX($D$4:$D$8),MIN($D$4:$D$8)/D6)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E16" s="18">
+        <f>IF($E$3="COST",MIN($E$4:$E$8)/E6)</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F16" s="13">
-        <f t="shared" si="3"/>
+        <f>IF($F$3="BENEFIT",F6/MAX($F$4:$F$8),MIN($F$4:$F$8)/F6)</f>
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
@@ -1266,276 +1269,291 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="13">
         <f>IF($B$3="BENEFIT",B7/MAX($B$4:$B$8),MIN($B$4:$B$8)/B7)</f>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="C17" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D17" s="18">
-        <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E17" s="13">
-        <f t="shared" si="2"/>
+        <f>IF($C$3="BENEFIT",C7/MAX($C$4:$C$8),MIN($C$4:$C$8)/C7)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D17" s="13">
+        <f>IF($D$4="BENEFIT",D7/MAX($D$4:$D$8),MIN($D$4:$D$8)/D7)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <f>IF($E$3="COST",MIN($E$4:$E$8)/E7)</f>
         <v>1</v>
       </c>
       <c r="F17" s="13">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF($F$3="BENEFIT",F7/MAX($F$4:$F$8),MIN($F$4:$F$8)/F7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="13">
         <f>IF($B$3="BENEFIT",B8/MAX($B$4:$B$8),MIN($B$4:$B$8)/B8)</f>
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="C18" s="13">
-        <f t="shared" si="0"/>
+        <f>IF($C$3="BENEFIT",C8/MAX($C$4:$C$8),MIN($C$4:$C$8)/C8)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D18" s="13">
+        <f>IF($D$4="BENEFIT",D8/MAX($D$4:$D$8),MIN($D$4:$D$8)/D8)</f>
         <v>0.75</v>
       </c>
-      <c r="D18" s="18">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-      <c r="E18" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="E18" s="18">
+        <f>IF($E$3="COST",MIN($E$4:$E$8)/E8)</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+        <f>IF($F$3="BENEFIT",F8/MAX($F$4:$F$8),MIN($F$4:$F$8)/F8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="26"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="3">
-        <f>($B$13*B14)+($C$13*C14)+($D$13*D14)+($E$13*E14)+($F$13*F14)</f>
-        <v>0.77857142857142858</v>
-      </c>
-      <c r="C23" s="23">
+        <f>($C$13*C14)+($D$13*D14)+($E$13*E14)+($F$13*F14)+($B$13*B14)</f>
+        <v>0.78809523809523818</v>
+      </c>
+      <c r="C23" s="25">
         <f>_xlfn.RANK.AVG(B23,$B$23:$B$27)</f>
-        <v>3</v>
-      </c>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="10">
-        <f t="shared" ref="B24:B27" si="4">($B$13*B15)+($C$13*C15)+($D$13*D15)+($E$13*E15)+($F$13*F15)</f>
+        <f>($C$13*C15)+($D$13*D15)+($E$13*E15)+($F$13*F15)+($B$13*B15)</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="C24" s="25">
-        <f t="shared" ref="C24:C27" si="5">_xlfn.RANK.AVG(B24,$B$23:$B$27)</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="27">
+        <f t="shared" ref="C24:C27" si="0">_xlfn.RANK.AVG(B24,$B$23:$B$27)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="4"/>
-        <v>0.80714285714285716</v>
-      </c>
-      <c r="C25" s="23">
-        <f t="shared" si="5"/>
+        <f>($C$13*C16)+($D$13*D16)+($E$13*E16)+($F$13*F16)+($B$13*B16)</f>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="C25" s="25">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="16">
-        <f t="shared" si="4"/>
-        <v>0.60357142857142865</v>
-      </c>
-      <c r="C26" s="24">
-        <f t="shared" si="5"/>
+        <f>($C$13*C17)+($D$13*D17)+($E$13*E17)+($F$13*F17)+($B$13*B17)</f>
+        <v>0.64166666666666661</v>
+      </c>
+      <c r="C26" s="26">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" si="4"/>
-        <v>0.76964285714285718</v>
-      </c>
-      <c r="C27" s="23">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <f>($C$13*C18)+($D$13*D18)+($E$13*E18)+($F$13*F18)+($B$13*B18)</f>
+        <v>0.8</v>
+      </c>
+      <c r="C27" s="25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="7">
+      <c r="E32" s="7">
         <v>4900000</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="7">
+      <c r="E33" s="7">
         <v>2500000</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="7">
+      <c r="E34" s="7">
         <v>2000000</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="7">
+      <c r="E35" s="7">
         <v>4500000</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="7">
+      <c r="E36" s="7">
         <v>7000000</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>30</v>
+      <c r="G36">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1559,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AD3CE4-5C1D-481A-998F-14E008E878DC}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1838,7 @@
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2129,7 +2147,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="27"/>
+      <c r="H22" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:F21" xr:uid="{B3AD3CE4-5C1D-481A-998F-14E008E878DC}"/>
@@ -2139,10 +2157,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F58BD9-B0A8-43C6-B383-F617BDEC438F}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2175,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>35</v>
@@ -2303,6 +2321,87 @@
       </c>
       <c r="H6" s="3">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
